--- a/target/test-classes/lorent.xlsx
+++ b/target/test-classes/lorent.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sayfa5" sheetId="5" r:id="rId5"/>
+    <sheet name="inceleme" sheetId="1" r:id="rId1"/>
+    <sheet name="haberler" sheetId="2" r:id="rId2"/>
+    <sheet name="karsilastirma" sheetId="3" r:id="rId3"/>
+    <sheet name="kriptopara" sheetId="4" r:id="rId4"/>
+    <sheet name="siberguvenlik" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="198">
   <si>
     <t>Bulut Depolamanın Farklı Bir Yolu: pCloud İncelemesi!</t>
   </si>
@@ -603,12 +603,22 @@
   </si>
   <si>
     <t>Sızma Testi (Pentest) Nedir?</t>
+  </si>
+  <si>
+    <t>ABD’nin Başka Bir Bulut Depolama Servisi: IDrive İncelemesi!</t>
+  </si>
+  <si>
+    <t>Skype ve Viber Karşılaştırması! Skype VS Viber!</t>
+  </si>
+  <si>
+    <t>MEGA Bulut Depolama İncelemesi! MEGA’yı Hiç Kullandınız Mı?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B58"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -952,296 +962,307 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="64.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="32">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="34">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="38">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="46">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="48">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="49">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="50">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="51">
+      <c r="A51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="52">
+      <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="53">
+      <c r="A53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="54">
+      <c r="A54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="55">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="57">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="58">
+      <c r="A58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="59">
+      <c r="A59" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="60">
+      <c r="A60" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1252,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B71"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -1260,361 +1281,362 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="79.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="79.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31">
+      <c r="A31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33">
+      <c r="A33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35">
+      <c r="A35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36">
+      <c r="A36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37">
+      <c r="A37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38">
+      <c r="A38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39">
+      <c r="A39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46">
+      <c r="A46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47">
+      <c r="A47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49">
+      <c r="A49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50">
+      <c r="A50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53">
+      <c r="A53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54">
+      <c r="A54" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55">
+      <c r="A55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57">
+      <c r="A57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58">
+      <c r="A58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59">
+      <c r="A59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60">
+      <c r="A60" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61">
+      <c r="A61" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62">
+      <c r="A62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63">
+      <c r="A63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64">
+      <c r="A64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65">
+      <c r="A65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66">
+      <c r="A66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67">
+      <c r="A67" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68">
+      <c r="A68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69">
+      <c r="A69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70">
+      <c r="A70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1625,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -1633,146 +1655,152 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="66.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="66.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1783,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B34"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -1791,176 +1819,177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="82.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="82.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1971,334 +2000,335 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B64"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25">
+      <c r="A25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27">
+      <c r="A27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28">
+      <c r="A28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29">
+      <c r="A29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30">
+      <c r="A30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31">
+      <c r="A31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32">
+      <c r="A32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33">
+      <c r="A33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34">
+      <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35">
+      <c r="A35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36">
+      <c r="A36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37">
+      <c r="A37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38">
+      <c r="A38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39">
+      <c r="A39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40">
+      <c r="A40" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43">
+      <c r="A43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44">
+      <c r="A44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45">
+      <c r="A45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46">
+      <c r="A46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47">
+      <c r="A47" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48">
+      <c r="A48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49">
+      <c r="A49" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50">
+      <c r="A50" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51">
+      <c r="A51" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52">
+      <c r="A52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54">
+      <c r="A54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56">
+      <c r="A56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57">
+      <c r="A57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58">
+      <c r="A58" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59">
+      <c r="A59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60">
+      <c r="A60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61">
+      <c r="A61" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62">
+      <c r="A62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63">
+      <c r="A63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64">
+      <c r="A64" t="s">
         <v>29</v>
       </c>
     </row>
